--- a/InputData/elec/EDLE/Electricity Dispatch Logit Exponent.xlsx
+++ b/InputData/elec/EDLE/Electricity Dispatch Logit Exponent.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/MN/elec/EDLE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5C1A655-9D57-F046-8A36-C66CED764CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{582F52A0-2042-EA44-9029-D3998E0DD219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{9B08635C-C98A-4192-B8F2-5981CE9EC6E6}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="EDLE" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -467,7 +467,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="4">
-        <v>44631</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
